--- a/Daisy-xls/ResearchPages/Spanish/research-ovarian-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-ovarian-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -45,25 +45,28 @@
     <t>Instantánea del cáncer de ovario</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/ovario</t>
-  </si>
-  <si>
     <t>NCI en el congreso de ASCO: Breve reseña de los resultados de investigaciones sobre cánceres en mujeres</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
-  </si>
-  <si>
     <t>El análisis de un estudio clínico indica que una combinación de fármacos puede ser de gran eficacia contra el cáncer de ovario recidivante</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/Asco-estudioNCI8348-cancer-de-ovario-recidivante</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un estudio de los NIH indica que el consumo regular de aspirina podría reducir el riesgo de cáncer de ovario </t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/aspirina-reduccion-cancerdeovario</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/ovario</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudioNCI8348-cancer-de-ovario-recidivante</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/aspirina-reduccion-cancerdeovario</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,82 +139,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,105 +493,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="44.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>725787</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11">
+        <v>41948</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>777243</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
-        <v>41948</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13">
+        <v>41792</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>777516</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14">
+        <v>41790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>702837</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14">
         <v>41676</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F11">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="B2:G11">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -626,7 +627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -638,7 +639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
